--- a/ApartoBotFramework/Book1.xlsx
+++ b/ApartoBotFramework/Book1.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <x:si>
     <x:t>Address</x:t>
   </x:si>
@@ -54,106 +54,343 @@
     <x:t>Bathrooms</x:t>
   </x:si>
   <x:si>
-    <x:t>Sq/ft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diamonte on Bell | 3202 W Bell Rd, Phoenix, AZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/b/diamonte-on-bell-phoenix-az-5XhyPd/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,190+ 1 bd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Cima | 6060 N 7th St, Phoenix, AZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/b/la-cima-phoenix-az-5Xt4sp/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,175+ Studio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Flats at 2030, 2030 W Indian School Rd, Phoenix, AZ 85015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/2030-W-Indian-School-Rd-358625CA5-Phoenix-AZ-85015/2064100456_zpid/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,115+/mo</x:t>
+    <x:t>Sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151 Straight Ave SW, Grand Rapids, MI 49504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/151-Straight-Ave-SW-Grand-Rapids-MI-49504/23787459_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,000/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 bd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 ba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,200 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duplex on NW Side of GR; 2 Bed 1 Bath Apartments, 950 Davis Ave NW #1, Grand Rapids, MI 49504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/950-Davis-Ave-NW-1-Grand-Rapids-MI-49504/2095108737_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$980/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 bds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,100 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duplex Home located SE of Grand Rapids for Rent, 256 Fuller Ave SE #2, Grand Rapids, MI 49506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/256-Fuller-Ave-SE-2-Grand-Rapids-MI-49506/2121170878_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,100/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29 Eastern Ave SE APT 2, Grand Rapids, MI 49503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/29-Eastern-Ave-SE-APT-2-Grand-Rapids-MI-49503/2069671805_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,300/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>750 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1420 Plainfield Ave NE APT 2, Grand Rapids, MI 49505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1420-Plainfield-Ave-NE-APT-2-Grand-Rapids-MI-49505/2104816320_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$975/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>680 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>750 Myrtle St NW #1, Grand Rapids, MI 49504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/750-Myrtle-St-NW-1-Grand-Rapids-MI-49504/2111172298_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,500/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 bds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,700 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1113 Broadway Ave NW #1, Grand Rapids, MI 49504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1113-Broadway-Ave-NW-1-Grand-Rapids-MI-49504/2096614712_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,000 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>740 Oakland Ave SW, Grand Rapids, MI 49503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/740-Oakland-Ave-SW-Grand-Rapids-MI-49503/2111664475_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,350/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-- sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1317 Hamilton Ave NW APT 2, Grand Rapids, MI 49504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1317-Hamilton-Ave-NW-APT-2-Grand-Rapids-MI-49504/2082354343_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$850/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>900 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1328 Broadway Ave NW #2, Grand Rapids, MI 49504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1328-Broadway-Ave-NW-2-Grand-Rapids-MI-49504/2085254765_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,295/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1023 Sheridan Ave SW #2, Grand Rapids, MI 49503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1023-Sheridan-Ave-SW-2-Grand-Rapids-MI-49503/2065790324_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,025/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>827 Douglas St NW #3, Grand Rapids, MI 49504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/827-Douglas-St-NW-3-Grand-Rapids-MI-49504/2070917754_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$995/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>600 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115 Pleasant St SE #2, Grand Rapids, MI 49503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/115-Pleasant-St-SE-2-Grand-Rapids-MI-49503/2076698125_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>425 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116 Gold Ave SW APT 3, Grand Rapids, MI 49504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/116-Gold-Ave-SW-APT-3-Grand-Rapids-MI-49504/2083094528_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>650 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1126 Houseman Ave NE #1126, Grand Rapids, MI 49503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1126-Houseman-Ave-NE-1126-Grand-Rapids-MI-49503/2063144381_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$835/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>700 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36 Parkview Dr NE, Grand Rapids, MI 49503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/36-Parkview-Dr-NE-Grand-Rapids-MI-49503/23810060_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 Jefferson Ave SE, Grand Rapids, MI 49503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/16-Jefferson-Ave-SE-Grand-Rapids-MI-49503/2064284100_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,465/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>331 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Division Park Avenue Apartments, 209 Division Ave S #182613, Grand Rapids, MI 49503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/209-Division-Ave-S-182613-Grand-Rapids-MI-49503/2089538209_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$804/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5 ba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>822 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seven45 Stocking | 745 Stocking Ave N, Grand Rapids, MI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/b/seven45-stocking-grand-rapids-mi-BwWj6b/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$968+ 2 bds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38 Commerce Ave SW, 38 Commerce Ave SW, Grand Rapids, MI 49503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/38-Commerce-Ave-SW-D598B13AB-Grand-Rapids-MI-49503/2066715503_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,175+/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>670 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Papago Square - 07, 1810 N 51st St APT 7, Phoenix, AZ 85008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1810-N-51st-St-APT-7-Phoenix-AZ-85008/2116741528_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,200+/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>910 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Space on 6th - 102 | 601 N 6th Ave, Phoenix, AZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/b/space-on-6th-102-phoenix-az-5XqsSG/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,200+ Studio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,200+ 1 bd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>622 N 30th Pl, Phoenix, AZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/b/622-n-30th-pl-phoenix-az-5XqVC7/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,150+ 2 bds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5323 E Taylor St, Phoenix, AZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/b/5323-e-taylor-st-phoenix-az-5XwQZC/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,400+ Studio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019 West Turney Avenue - 3 | 2019 W Turney Ave, Phoenix, AZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/b/2019-west-turney-avenue-3-phoenix-az-5Z4j9N/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1831 W Mulberry Dr, Phoenix, AZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/b/1831-w-mulberry-dr-phoenix-az-5XqtVz/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$950+ 1 bd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3511 E Baseline Rd UNIT 1244, Phoenix, AZ 85042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/3511-E-Baseline-Rd-UNIT-1244-Phoenix-AZ-85042/72292480_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,325/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>578 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6040 N 21st Ave APT 8, Phoenix, AZ 85015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/6040-N-21st-Ave-APT-8-Phoenix-AZ-85015/2063068322_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,400/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>780 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>770 E Portland St #203, Phoenix, AZ 85006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/770-E-Portland-St-203-Phoenix-AZ-85006/2075350056_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,275/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2121 W Royal Palm Rd APT 1039, Phoenix, AZ 85021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/2121-W-Royal-Palm-Rd-APT-1039-Phoenix-AZ-85021/68958145_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$875/mo</x:t>
   </x:si>
   <x:si>
     <x:t>Studio</x:t>
   </x:si>
   <x:si>
-    <x:t>1 ba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>410 sqft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inhabit on 7th, 5615 N 7th St APT 23, Phoenix, AZ 85014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/5615-N-7th-St-APT-23-Phoenix-AZ-85014/2083934440_zpid/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,140/mo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>360 sqft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tides on 71st | 7007 W Indian School Rd, Phoenix, AZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/b/tides-on-71st-phoenix-az-5XhyLM/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,165+ 2 bds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Camelback Cove Apartments | 4802 N 12th St, Phoenix, AZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/b/camelback-cove-apartments-phoenix-az-5XhyHq/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,080+ Studio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Mod Apartments | 2222 W Beardsley Rd, Phoenix, AZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/b/the-mod-apartments-phoenix-az-5XhyNf/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,165+ Studio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cordova Apartments | 6231 W McDowell Rd, Phoenix, AZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/b/cordova-apartments-phoenix-az-5XjqBR/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,195+ 1 bd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5401 E Van Buren St UNIT 3098, Phoenix, AZ 85008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/5401-E-Van-Buren-St-UNIT-3098-Phoenix-AZ-85008/68533850_zpid/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,100/mo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 bd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>684 sqft</x:t>
+    <x:t>510 sqft</x:t>
   </x:si>
   <x:si>
     <x:t>1744 W Glendale Ave UNIT 1, Phoenix, AZ 85021</x:t>
@@ -165,100 +402,289 @@
     <x:t>$1,125/mo</x:t>
   </x:si>
   <x:si>
-    <x:t>650 sqft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>837 E Montecito Ave APT 255, Phoenix, AZ 85014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/837-E-Montecito-Ave-APT-255-Phoenix-AZ-85014/2096880968_zpid/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,099/mo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>412 N 17th Dr #2, Phoenix, AZ 85007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/412-N-17th-Dr-2-Phoenix-AZ-85007/2076918573_zpid/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,175/mo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>614 sqft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1925 W Village Dr #A, Phoenix, AZ 85023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/1925-W-Village-Dr-A-Phoenix-AZ-85023/2064133490_zpid/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,190/mo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>485 sqft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1904 W Village Dr APT B, Phoenix, AZ 85023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/1904-W-Village-Dr-APT-B-Phoenix-AZ-85023/2099376646_zpid/</x:t>
+    <x:t>1204 W Cochise Dr APT 1, Phoenix, AZ 85021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1204-W-Cochise-Dr-APT-1-Phoenix-AZ-85021/2093361042_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,495/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>884 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4554 E Paradise Village Pkwy N UNIT 264, Phoenix, AZ 85032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/4554-E-Paradise-Village-Pkwy-N-UNIT-264-Phoenix-AZ-85032/7823431_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>685 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3613 N 45th Pl #1, Phoenix, AZ 85018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/3613-N-45th-Pl-1-Phoenix-AZ-85018/2077204527_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15402 N 28th St UNIT 223, Phoenix, AZ 85032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/15402-N-28th-St-UNIT-223-Phoenix-AZ-85032/8007822_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,475/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 ba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>946 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2510 E Pueblo Ave APT 4, Phoenix, AZ 85040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/2510-E-Pueblo-Ave-APT-4-Phoenix-AZ-85040/2100552512_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$959/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>621 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>602 E San Juan Ave #3, Phoenix, AZ 85012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/602-E-San-Juan-Ave-3-Phoenix-AZ-85012/2070101502_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,375/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 bed, 850 sqft, $1,449, 1815 E Sheridan St APT 2, Phoenix, AZ 85006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1815-E-Sheridan-St-APT-2-Phoenix-AZ-85006/2103885169_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,449/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>850 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1904 W Palm Ln #B, Phoenix, AZ 85009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1904-W-Palm-Ln-B-Phoenix-AZ-85009/2078069313_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216 E Jones Ave, Phoenix, AZ 85040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/216-E-Jones-Ave-Phoenix-AZ-85040/2067574428_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,150/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30 W Fremont Rd UNIT B, Phoenix, AZ 85041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/30-W-Fremont-Rd-UNIT-B-Phoenix-AZ-85041/2072225681_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,249/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 bds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 ba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,300 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 bed, 1.0 bath, 545 sqft, $895, 2341 W Yuma St #3, Phoenix, AZ 85009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/2341-W-Yuma-St-3-Phoenix-AZ-85009/2076817081_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,095/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1921 E. Virginia Ave., 1921 E Virginia Ave APT 8, Phoenix, AZ 85006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1921-E-Virginia-Ave-APT-8-Phoenix-AZ-85006/2082248626_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,379/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>640 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2537 E Willetta St APT 4, Phoenix, AZ 85008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/2537-E-Willetta-St-APT-4-Phoenix-AZ-85008/2104815246_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$899/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110 W Maryland Ave APT 102, Phoenix, AZ 85013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/110-W-Maryland-Ave-APT-102-Phoenix-AZ-85013/2067599129_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>943 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>816 E Hazel Dr, Phoenix, AZ 85042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/816-E-Hazel-Dr-Phoenix-AZ-85042/8133313_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,110/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>832 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301 W Medlock Dr, Phoenix, AZ 85013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/301-W-Medlock-Dr-Phoenix-AZ-85013/2063054086_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>914 W Glendale Ave APT 19, Phoenix, AZ 85021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/914-W-Glendale-Ave-APT-19-Phoenix-AZ-85021/2081458800_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>784 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9848 N 13th Pl, Phoenix, AZ 85020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/9848-N-13th-Pl-Phoenix-AZ-85020/7786643_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>704 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103-3001 N 36th St #103, Phoenix, AZ 85018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/103-3001-N-36th-St-103-Phoenix-AZ-85018/2062949488_zpid/</x:t>
   </x:si>
   <x:si>
     <x:t>$1,200/mo</x:t>
   </x:si>
   <x:si>
-    <x:t>2 bds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,000 sqft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1448 S 13th Ave, Phoenix, AZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/b/1448-s-13th-ave-phoenix-az-5YmTcs/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,200+ 2 bds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1022 S Montezuma St #2, Phoenix, AZ 85003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/1022-S-Montezuma-St-2-Phoenix-AZ-85003/2063491852_zpid/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,150/mo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>600 sqft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2629 E Monte Cristo Ave APT 1, Phoenix, AZ 85032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/2629-E-Monte-Cristo-Ave-APT-1-Phoenix-AZ-85032/2080458653_zpid/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,195/mo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>720 sqft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>328 E Willetta St, Phoenix, AZ 85004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/328-E-Willetta-St-Phoenix-AZ-85004/2079430741_zpid/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,199/mo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>550 sqft</x:t>
+    <x:t>2402 W Hayward Avenue | 2402 W Hayward Ave, Phoenix, AZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/b/2402-w-hayward-avenue-phoenix-az-5j2Rpk/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,025+ 1 bd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,275+ 2 bds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10215 N 8th Ave UNIT 3, Phoenix, AZ 85021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/10215-N-8th-Ave-UNIT-3-Phoenix-AZ-85021/61628057_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>864 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1930 W Van Buren St, Phoenix, AZ 85009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1930-W-Van-Buren-St-Phoenix-AZ-85009/2142098655_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316 N 14th Ave, Phoenix, AZ 85007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/316-N-14th-Ave-Phoenix-AZ-85007/81975501_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$900/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,016 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2240 W Southern Ave #22, Phoenix, AZ 85041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/2240-W-Southern-Ave-22-Phoenix-AZ-85041/2073094812_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2802 E Monte Cristo Ave #203, Phoenix, AZ 85032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/2802-E-Monte-Cristo-Ave-203-Phoenix-AZ-85032/2067585091_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>929 sqft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12212 N Paradise Village Pkwy S APT 125, Phoenix, AZ 85032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/12212-N-Paradise-Village-Pkwy-S-APT-125-Phoenix-AZ-85032/7824702_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4133 E Belleview St, Phoenix, AZ 85008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/4133-E-Belleview-St-Phoenix-AZ-85008/7559947_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,297/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1222 E Mountain View Rd APT 119, Phoenix, AZ 85020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/1222-E-Mountain-View-Rd-APT-119-Phoenix-AZ-85020/67756128_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$999/mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13315 N 26th Ave, Phoenix, AZ 85029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/13315-N-26th-Ave-Phoenix-AZ-85029/7738459_zpid/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,089 sqft</x:t>
   </x:si>
   <x:si>
     <x:t>1725 W Vogel Ave, Phoenix, AZ 85021</x:t>
@@ -273,6 +699,12 @@
     <x:t>800 sqft</x:t>
   </x:si>
   <x:si>
+    <x:t>2002 E Sweetwater Ave APT 208, Phoenix, AZ 85022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zillow.com/homedetails/2002-E-Sweetwater-Ave-APT-208-Phoenix-AZ-85022/2115130166_zpid/</x:t>
+  </x:si>
+  <x:si>
     <x:t>2412 E Monroe St, Phoenix, AZ 85034</x:t>
   </x:si>
   <x:si>
@@ -291,34 +723,10 @@
     <x:t>https://www.zillow.com/b/sierra-ranch-phoenix-az-5XjqCY/</x:t>
   </x:si>
   <x:si>
-    <x:t>$1,019+ 1 bd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sierra Pines Apartments OLD | 9410 N 31st Ave, Phoenix, AZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/b/sierra-pines-apartments-old-phoenix-az-5XrJxm/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,050+ 1 bd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seventh Apartments, 5145 N 7th St #H-380, Phoenix, AZ 85014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/5145-N-7th-St-H-380-Phoenix-AZ-85014/2063381761_zpid/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,075/mo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>470 sqft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Halifax Apartments, 1350 E Northern Ave APT 348, Phoenix, AZ 85020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zillow.com/homedetails/1350-E-Northern-Ave-APT-348-Phoenix-AZ-85020/2067741994_zpid/</x:t>
+    <x:t>$869+ 1 bd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,377+ 2 bds</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -727,429 +1135,1242 @@
       <x:c r="C2" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s"/>
-      <x:c r="E2" s="1" t="s"/>
+      <x:c r="D2" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
       <x:c r="A4" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:12">
       <x:c r="A5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12">
       <x:c r="A6" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="s"/>
-      <x:c r="E6" s="1" t="s"/>
-      <x:c r="F6" s="1" t="s"/>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:12">
       <x:c r="A7" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="s"/>
-      <x:c r="E7" s="1" t="s"/>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:12">
       <x:c r="A8" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D8" s="1" t="s"/>
-      <x:c r="E8" s="1" t="s"/>
+      <x:c r="D8" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:12">
       <x:c r="A9" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="s"/>
+      <x:c r="E9" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:12">
       <x:c r="A10" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
       <x:c r="A11" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="s">
-        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:12">
       <x:c r="A12" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:12">
       <x:c r="A13" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
       <x:c r="A14" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:12">
       <x:c r="A15" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:12">
       <x:c r="A16" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="s"/>
-      <x:c r="E16" s="1" t="s"/>
-      <x:c r="F16" s="1" t="s"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
     </x:row>
     <x:row r="17" spans="1:12">
       <x:c r="A17" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:12">
       <x:c r="A18" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:12">
       <x:c r="A19" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:12">
       <x:c r="A20" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s"/>
+      <x:c r="E20" s="1" t="s"/>
+      <x:c r="F20" s="1" t="s"/>
     </x:row>
     <x:row r="21" spans="1:12">
       <x:c r="A21" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:12">
       <x:c r="A22" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B22" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="B22" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C22" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D22" s="1" t="s"/>
-      <x:c r="E22" s="1" t="s"/>
-      <x:c r="F22" s="1" t="s"/>
     </x:row>
     <x:row r="23" spans="1:12">
       <x:c r="A23" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B23" s="1" t="s">
+      <x:c r="D23" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F23" s="1" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="C23" s="1" t="s">
-        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:12">
       <x:c r="A24" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="B24" s="1" t="s">
+      <x:c r="C24" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C24" s="1" t="s">
+      <x:c r="D24" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D24" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E24" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F24" s="1" t="s">
-        <x:v>91</x:v>
-      </x:c>
+      <x:c r="E24" s="1" t="s"/>
+      <x:c r="F24" s="1" t="s"/>
     </x:row>
     <x:row r="25" spans="1:12">
       <x:c r="A25" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B25" s="1" t="s">
+      <x:c r="C25" s="1" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="C25" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D25" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E25" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F25" s="1" t="s">
-        <x:v>65</x:v>
-      </x:c>
+      <x:c r="D25" s="1" t="s"/>
+      <x:c r="E25" s="1" t="s"/>
+      <x:c r="F25" s="1" t="s"/>
     </x:row>
     <x:row r="26" spans="1:12">
       <x:c r="A26" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D26" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E26" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F26" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D26" s="1" t="s"/>
+      <x:c r="E26" s="1" t="s"/>
+      <x:c r="F26" s="1" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:12">
+      <x:c r="A27" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:12">
+      <x:c r="A28" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:12">
+      <x:c r="A29" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E29" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:12">
+      <x:c r="A30" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B30" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E30" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:12">
+      <x:c r="A31" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B31" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E31" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F31" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:12">
+      <x:c r="A32" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C32" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:12">
+      <x:c r="A33" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B33" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C33" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E33" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F33" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:12">
+      <x:c r="A34" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B34" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C34" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D34" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E34" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F34" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:12">
+      <x:c r="A35" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B35" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D35" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F35" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:12">
+      <x:c r="A36" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B36" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C36" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E36" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F36" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:12">
+      <x:c r="A37" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B37" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D37" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E37" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="F37" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:12">
+      <x:c r="A38" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B38" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C38" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E38" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F38" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:12">
+      <x:c r="A39" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B39" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C39" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E39" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F39" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:12">
+      <x:c r="A40" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B40" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E40" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F40" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:12">
+      <x:c r="A41" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B41" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E41" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F41" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:12">
+      <x:c r="A42" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B42" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C42" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F42" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:12">
+      <x:c r="A43" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B43" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="F43" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:12">
+      <x:c r="A44" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B44" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C44" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E44" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F44" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:12">
+      <x:c r="A45" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B45" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C45" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E45" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F45" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:12">
+      <x:c r="A46" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B46" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C46" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E46" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F46" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:12">
+      <x:c r="A47" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B47" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C47" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D47" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E47" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="F47" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:12">
+      <x:c r="A48" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B48" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C48" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E48" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F48" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:12">
+      <x:c r="A49" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B49" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C49" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D49" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E49" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F49" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:12">
+      <x:c r="A50" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B50" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C50" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D50" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E50" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F50" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:12">
+      <x:c r="A51" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B51" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C51" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D51" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E51" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F51" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:12">
+      <x:c r="A52" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B52" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C52" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D52" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E52" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F52" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:12">
+      <x:c r="A53" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B53" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C53" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="D53" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:12">
+      <x:c r="A54" s="1" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B54" s="1" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C54" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D54" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E54" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="F54" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:12">
+      <x:c r="A55" s="1" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B55" s="1" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C55" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D55" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E55" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F55" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:12">
+      <x:c r="A56" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B56" s="1" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C56" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D56" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E56" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F56" s="1" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:12">
+      <x:c r="A57" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B57" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C57" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D57" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E57" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F57" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:12">
+      <x:c r="A58" s="1" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B58" s="1" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C58" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E58" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="F58" s="1" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:12">
+      <x:c r="A59" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B59" s="1" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C59" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D59" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E59" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F59" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:12">
+      <x:c r="A60" s="1" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B60" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C60" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="D60" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E60" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F60" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:12">
+      <x:c r="A61" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B61" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C61" s="1" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E61" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F61" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:12">
+      <x:c r="A62" s="1" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B62" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C62" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E62" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="F62" s="1" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:12">
+      <x:c r="A63" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B63" s="1" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C63" s="1" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E63" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F63" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:12">
+      <x:c r="A64" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B64" s="1" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C64" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D64" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E64" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F64" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:12">
+      <x:c r="A65" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B65" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="C65" s="1" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E65" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F65" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:12">
+      <x:c r="A66" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B66" s="1" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C66" s="1" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D66" s="1" t="s">
+        <x:v>229</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
